--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1727,28 +1727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.3134788332101</v>
+        <v>168.9430038969671</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.513477244946</v>
+        <v>231.1552711710344</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.1942962588128</v>
+        <v>209.0941365189983</v>
       </c>
       <c r="AD2" t="n">
-        <v>117313.4788332101</v>
+        <v>168943.0038969671</v>
       </c>
       <c r="AE2" t="n">
-        <v>160513.4772449461</v>
+        <v>231155.2711710344</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.049404682013945e-06</v>
+        <v>4.396218214611427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>145194.2962588128</v>
+        <v>209094.1365189983</v>
       </c>
     </row>
     <row r="3">
@@ -1833,28 +1833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.42875106301467</v>
+        <v>132.8769708989276</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.6745595743882</v>
+        <v>181.8081337020613</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.821408625576</v>
+        <v>164.4566205909058</v>
       </c>
       <c r="AD3" t="n">
-        <v>98428.75106301467</v>
+        <v>132876.9708989276</v>
       </c>
       <c r="AE3" t="n">
-        <v>134674.5595743881</v>
+        <v>181808.1337020613</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.684853906719039e-06</v>
+        <v>5.31232274891163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>121821.408625576</v>
+        <v>164456.6205909058</v>
       </c>
     </row>
     <row r="4">
@@ -1939,28 +1939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.08462720945411</v>
+        <v>132.532847045367</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.2037141362738</v>
+        <v>181.337288263947</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.3955000152395</v>
+        <v>164.0307119805693</v>
       </c>
       <c r="AD4" t="n">
-        <v>98084.62720945411</v>
+        <v>132532.847045367</v>
       </c>
       <c r="AE4" t="n">
-        <v>134203.7141362738</v>
+        <v>181337.288263947</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.707121705733462e-06</v>
+        <v>5.344425442333699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>121395.5000152395</v>
+        <v>164030.7119805693</v>
       </c>
     </row>
   </sheetData>
@@ -2236,28 +2236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.10453722918579</v>
+        <v>141.1063141496287</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.5992000205245</v>
+        <v>193.0678841906662</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.6578026852744</v>
+        <v>174.6417562960409</v>
       </c>
       <c r="AD2" t="n">
-        <v>99104.53722918579</v>
+        <v>141106.3141496287</v>
       </c>
       <c r="AE2" t="n">
-        <v>135599.2000205245</v>
+        <v>193067.8841906662</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.532048149593133e-06</v>
+        <v>5.170785619051494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>122657.8026852744</v>
+        <v>174641.7562960409</v>
       </c>
     </row>
     <row r="3">
@@ -2342,28 +2342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.34222296194091</v>
+        <v>127.926665835932</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.0831915416059</v>
+        <v>175.034907922828</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.7636729103064</v>
+        <v>158.3298219737583</v>
       </c>
       <c r="AD3" t="n">
-        <v>94342.2229619409</v>
+        <v>127926.665835932</v>
       </c>
       <c r="AE3" t="n">
-        <v>129083.1915416059</v>
+        <v>175034.907922828</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.902116854921857e-06</v>
+        <v>5.712552282055563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.059895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>116763.6729103064</v>
+        <v>158329.8219737583</v>
       </c>
     </row>
   </sheetData>
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.69113815020208</v>
+        <v>115.6750417411405</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.8781515263793</v>
+        <v>158.2716953328345</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.8189033807388</v>
+        <v>143.1664668660318</v>
       </c>
       <c r="AD2" t="n">
-        <v>84691.13815020208</v>
+        <v>115675.0417411405</v>
       </c>
       <c r="AE2" t="n">
-        <v>115878.1515263793</v>
+        <v>158271.6953328345</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.340533383269263e-06</v>
+        <v>6.715340908606031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104818.9033807388</v>
+        <v>143166.4668660318</v>
       </c>
     </row>
   </sheetData>
@@ -2936,28 +2936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.84083517449515</v>
+        <v>111.926697221473</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.2417530147551</v>
+        <v>153.1430449957387</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.81587342881804</v>
+        <v>138.5272877190009</v>
       </c>
       <c r="AD2" t="n">
-        <v>79840.83517449515</v>
+        <v>111926.697221473</v>
       </c>
       <c r="AE2" t="n">
-        <v>109241.7530147551</v>
+        <v>153143.0449957387</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.238956179765519e-06</v>
+        <v>6.406308906958673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98815.87342881804</v>
+        <v>138527.2877190009</v>
       </c>
     </row>
   </sheetData>
@@ -3233,28 +3233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.17509383845228</v>
+        <v>112.3250890409959</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4355886990039</v>
+        <v>153.6881422590163</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7048939179397</v>
+        <v>139.0203616645202</v>
       </c>
       <c r="AD2" t="n">
-        <v>82175.09383845229</v>
+        <v>112325.0890409959</v>
       </c>
       <c r="AE2" t="n">
-        <v>112435.5886990039</v>
+        <v>153688.1422590163</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.34545273029042e-06</v>
+        <v>6.867935852825172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.385416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>101704.8939179397</v>
+        <v>139020.3616645202</v>
       </c>
     </row>
   </sheetData>
@@ -3530,28 +3530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1396189604291</v>
+        <v>144.036439078741</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.6978856786511</v>
+        <v>197.0770103866642</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.3154909753326</v>
+        <v>178.2682571147381</v>
       </c>
       <c r="AD2" t="n">
-        <v>110139.6189604291</v>
+        <v>144036.439078741</v>
       </c>
       <c r="AE2" t="n">
-        <v>150697.8856786511</v>
+        <v>197077.0103866642</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391464455504557e-06</v>
+        <v>4.944369529000564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>136315.4909753327</v>
+        <v>178268.2571147381</v>
       </c>
     </row>
     <row r="3">
@@ -3636,28 +3636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.2479398722155</v>
+        <v>129.0594191359557</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.322433375653</v>
+        <v>176.5847909614684</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8846432429993</v>
+        <v>159.7317863504659</v>
       </c>
       <c r="AD3" t="n">
-        <v>95247.9398722155</v>
+        <v>129059.4191359558</v>
       </c>
       <c r="AE3" t="n">
-        <v>130322.433375653</v>
+        <v>176584.7909614684</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.855458583597533e-06</v>
+        <v>5.620820206481359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>117884.6432429993</v>
+        <v>159731.7863504659</v>
       </c>
     </row>
   </sheetData>
@@ -3933,28 +3933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.8647070374202</v>
+        <v>117.9561760880671</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.6426596676471</v>
+        <v>161.3928439828427</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.0830795169433</v>
+        <v>145.9897374694438</v>
       </c>
       <c r="AD2" t="n">
-        <v>80864.7070374202</v>
+        <v>117956.1760880671</v>
       </c>
       <c r="AE2" t="n">
-        <v>110642.6596676471</v>
+        <v>161392.8439828427</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.286198462086544e-06</v>
+        <v>6.867496754328715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>100083.0795169433</v>
+        <v>145989.7374694438</v>
       </c>
     </row>
   </sheetData>
@@ -4230,28 +4230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.73927144199187</v>
+        <v>125.5868713838625</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8899625547826</v>
+        <v>171.8334979290621</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.7797626197686</v>
+        <v>155.4339500565893</v>
       </c>
       <c r="AD2" t="n">
-        <v>92739.27144199188</v>
+        <v>125586.8713838625</v>
       </c>
       <c r="AE2" t="n">
-        <v>126889.9625547826</v>
+        <v>171833.4979290621</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.928687956683203e-06</v>
+        <v>5.833485586125541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>114779.7626197686</v>
+        <v>155433.9500565893</v>
       </c>
     </row>
     <row r="3">
@@ -4336,28 +4336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.01001149711881</v>
+        <v>124.0053938978395</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.5779598735584</v>
+        <v>169.669650662824</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.7382387909231</v>
+        <v>153.4766173364615</v>
       </c>
       <c r="AD3" t="n">
-        <v>83010.01149711882</v>
+        <v>124005.3938978395</v>
       </c>
       <c r="AE3" t="n">
-        <v>113577.9598735584</v>
+        <v>169669.650662824</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.07693798539388e-06</v>
+        <v>6.053613632730838e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.942708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>102738.2387909231</v>
+        <v>153476.6173364616</v>
       </c>
     </row>
   </sheetData>
@@ -4633,28 +4633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.27195232579592</v>
+        <v>138.9791420794572</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.0917765077678</v>
+        <v>190.1573935200504</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.3896841533834</v>
+        <v>172.0090387701285</v>
       </c>
       <c r="AD2" t="n">
-        <v>97271.95232579592</v>
+        <v>138979.1420794572</v>
       </c>
       <c r="AE2" t="n">
-        <v>133091.7765077678</v>
+        <v>190157.3935200504</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.633800515625866e-06</v>
+        <v>5.343294638904571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.736979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>120389.6841533834</v>
+        <v>172009.0387701284</v>
       </c>
     </row>
     <row r="3">
@@ -4739,28 +4739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.16358781310817</v>
+        <v>126.5123609536739</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.4705309332608</v>
+        <v>173.0997935881958</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.3049223670379</v>
+        <v>156.5793922352727</v>
       </c>
       <c r="AD3" t="n">
-        <v>93163.58781310817</v>
+        <v>126512.3609536739</v>
       </c>
       <c r="AE3" t="n">
-        <v>127470.5309332608</v>
+        <v>173099.7935881958</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.964799732133664e-06</v>
+        <v>5.830009947420375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>115304.9223670379</v>
+        <v>156579.3922352727</v>
       </c>
     </row>
   </sheetData>
@@ -5036,28 +5036,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3153780011239</v>
+        <v>158.2253540427692</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7795875364997</v>
+        <v>216.4909098111872</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7213251471014</v>
+        <v>195.8293212257697</v>
       </c>
       <c r="AD2" t="n">
-        <v>115315.3780011239</v>
+        <v>158225.3540427692</v>
       </c>
       <c r="AE2" t="n">
-        <v>157779.5875364997</v>
+        <v>216490.9098111872</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.135448885819313e-06</v>
+        <v>4.536281244058177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>142721.3251471014</v>
+        <v>195829.3212257698</v>
       </c>
     </row>
     <row r="3">
@@ -5142,28 +5142,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.21354501634796</v>
+        <v>131.4562745036436</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.0118610502325</v>
+        <v>179.8642742173333</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.3173957149532</v>
+        <v>162.6982803271757</v>
       </c>
       <c r="AD3" t="n">
-        <v>97213.54501634797</v>
+        <v>131456.2745036436</v>
       </c>
       <c r="AE3" t="n">
-        <v>133011.8610502325</v>
+        <v>179864.2742173333</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.748497092153417e-06</v>
+        <v>5.423222534242923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>120317.3957149532</v>
+        <v>162698.2803271757</v>
       </c>
     </row>
     <row r="4">
@@ -5248,28 +5248,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.10223603243153</v>
+        <v>131.3449655197272</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.8595631878323</v>
+        <v>179.7119763549331</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.1796329467891</v>
+        <v>162.5605175590115</v>
       </c>
       <c r="AD4" t="n">
-        <v>97102.23603243154</v>
+        <v>131344.9655197272</v>
       </c>
       <c r="AE4" t="n">
-        <v>132859.5631878323</v>
+        <v>179711.9763549331</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.75082637417779e-06</v>
+        <v>5.426592475436056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>120179.6329467891</v>
+        <v>162560.5175590115</v>
       </c>
     </row>
   </sheetData>
@@ -5545,28 +5545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.00053358671043</v>
+        <v>121.3088980435613</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.8285035446303</v>
+        <v>165.9801860740012</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.2511867151408</v>
+        <v>150.1392700697987</v>
       </c>
       <c r="AD2" t="n">
-        <v>81000.53358671043</v>
+        <v>121308.8980435613</v>
       </c>
       <c r="AE2" t="n">
-        <v>110828.5035446303</v>
+        <v>165980.1860740012</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.166686314391953e-06</v>
+        <v>6.257048729831812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>100251.1867151409</v>
+        <v>150139.2700697987</v>
       </c>
     </row>
     <row r="3">
@@ -5651,28 +5651,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.85544562756724</v>
+        <v>113.2386825603625</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.6299877981017</v>
+        <v>154.9381612171146</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.0716170328423</v>
+        <v>140.1510805676706</v>
       </c>
       <c r="AD3" t="n">
-        <v>80855.44562756724</v>
+        <v>113238.6825603625</v>
       </c>
       <c r="AE3" t="n">
-        <v>110629.9877981017</v>
+        <v>154938.1612171146</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.19817267307453e-06</v>
+        <v>6.304331310217418e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>100071.6170328423</v>
+        <v>140151.0805676706</v>
       </c>
     </row>
   </sheetData>
@@ -5948,28 +5948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.83190495387352</v>
+        <v>117.1794215761742</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.4389989942412</v>
+        <v>160.3300541916809</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.2307857569316</v>
+        <v>145.0283788443154</v>
       </c>
       <c r="AD2" t="n">
-        <v>85831.90495387351</v>
+        <v>117179.4215761742</v>
       </c>
       <c r="AE2" t="n">
-        <v>117438.9989942412</v>
+        <v>160330.0541916809</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.307587130854098e-06</v>
+        <v>6.606747757472237e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>106230.7857569316</v>
+        <v>145028.3788443154</v>
       </c>
     </row>
   </sheetData>
@@ -9738,28 +9738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.43163869701573</v>
+        <v>114.0194277113604</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1548488093363</v>
+        <v>156.0064111767544</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2600702563393</v>
+        <v>141.117378250461</v>
       </c>
       <c r="AD2" t="n">
-        <v>83431.63869701573</v>
+        <v>114019.4277113604</v>
       </c>
       <c r="AE2" t="n">
-        <v>114154.8488093363</v>
+        <v>156006.4111767544</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.361346685932148e-06</v>
+        <v>6.814518167611308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.190104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>103260.0702563393</v>
+        <v>141117.378250461</v>
       </c>
     </row>
   </sheetData>
@@ -10035,28 +10035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.17810373346227</v>
+        <v>123.4662923286931</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.2809275545722</v>
+        <v>168.9320281124355</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.8969232406282</v>
+        <v>152.8093924470221</v>
       </c>
       <c r="AD2" t="n">
-        <v>87178.10373346227</v>
+        <v>123466.2923286931</v>
       </c>
       <c r="AE2" t="n">
-        <v>119280.9275545722</v>
+        <v>168932.0281124355</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.085866552181612e-06</v>
+        <v>6.658639203104083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>107896.9232406282</v>
+        <v>152809.3924470221</v>
       </c>
     </row>
   </sheetData>
@@ -10332,28 +10332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.95519126365963</v>
+        <v>128.0587224745234</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.9218818142699</v>
+        <v>175.2155936416764</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5223197604568</v>
+        <v>158.4932633011938</v>
       </c>
       <c r="AD2" t="n">
-        <v>94955.19126365962</v>
+        <v>128058.7224745234</v>
       </c>
       <c r="AE2" t="n">
-        <v>129921.8818142699</v>
+        <v>175215.5936416764</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781896510938389e-06</v>
+        <v>5.587301310881328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>117522.3197604568</v>
+        <v>158493.2633011938</v>
       </c>
     </row>
     <row r="3">
@@ -10438,28 +10438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.04005807578746</v>
+        <v>125.3553545627496</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.98731504494</v>
+        <v>171.5167264006144</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.0130870827909</v>
+        <v>155.1474107582249</v>
       </c>
       <c r="AD3" t="n">
-        <v>84040.05807578746</v>
+        <v>125355.3545627496</v>
       </c>
       <c r="AE3" t="n">
-        <v>114987.31504494</v>
+        <v>171516.7264006144</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.012725732416349e-06</v>
+        <v>5.928323971872522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>104013.0870827909</v>
+        <v>155147.4107582249</v>
       </c>
     </row>
   </sheetData>
@@ -10735,28 +10735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.017766357991</v>
+        <v>154.4920883609314</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.2676498060092</v>
+        <v>211.3828910052414</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.6400004210631</v>
+        <v>191.2088045655124</v>
       </c>
       <c r="AD2" t="n">
-        <v>112017.766357991</v>
+        <v>154492.0883609314</v>
       </c>
       <c r="AE2" t="n">
-        <v>153267.6498060093</v>
+        <v>211382.8910052414</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.298913519035301e-06</v>
+        <v>4.790579997582082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>138640.0004210632</v>
+        <v>191208.8045655124</v>
       </c>
     </row>
     <row r="3">
@@ -10841,28 +10841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.00740692298234</v>
+        <v>130.0380869397879</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.3615696998332</v>
+        <v>177.9238474264472</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.8246058548371</v>
+        <v>160.943045145805</v>
       </c>
       <c r="AD3" t="n">
-        <v>96007.40692298234</v>
+        <v>130038.0869397879</v>
       </c>
       <c r="AE3" t="n">
-        <v>131361.5696998332</v>
+        <v>177923.8474264472</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.820078038011012e-06</v>
+        <v>5.547398964083703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>118824.6058548371</v>
+        <v>160943.045145805</v>
       </c>
     </row>
     <row r="4">
@@ -10947,28 +10947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.10352412382754</v>
+        <v>130.134204140633</v>
       </c>
       <c r="AB4" t="n">
-        <v>131.4930814944212</v>
+        <v>178.0553592210352</v>
       </c>
       <c r="AC4" t="n">
-        <v>118.9435663483276</v>
+        <v>161.0620056392955</v>
       </c>
       <c r="AD4" t="n">
-        <v>96103.52412382753</v>
+        <v>130134.2041406331</v>
       </c>
       <c r="AE4" t="n">
-        <v>131493.0814944212</v>
+        <v>178055.3592210351</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.819745904759661e-06</v>
+        <v>5.546916650467033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.0859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>118943.5663483276</v>
+        <v>161062.0056392955</v>
       </c>
     </row>
   </sheetData>
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.31902826700808</v>
+        <v>135.9276712340025</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.6832114198353</v>
+        <v>185.9822364879088</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.4973049264728</v>
+        <v>168.2323528652634</v>
       </c>
       <c r="AD2" t="n">
-        <v>93319.02826700808</v>
+        <v>135927.6712340025</v>
       </c>
       <c r="AE2" t="n">
-        <v>127683.2114198354</v>
+        <v>185982.2364879088</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.638747571074198e-06</v>
+        <v>6.065575407887056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>115497.3049264728</v>
+        <v>168232.3528652634</v>
       </c>
     </row>
   </sheetData>
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.99387204490526</v>
+        <v>118.5358952148409</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.0829006954746</v>
+        <v>162.186041267497</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.76762034842992</v>
+        <v>146.7072331185104</v>
       </c>
       <c r="AD2" t="n">
-        <v>78993.87204490526</v>
+        <v>118535.8952148409</v>
       </c>
       <c r="AE2" t="n">
-        <v>108082.9006954746</v>
+        <v>162186.041267497</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.266173169313254e-06</v>
+        <v>6.492717195789901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>97767.62034842992</v>
+        <v>146707.2331185104</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.74238087996524</v>
+        <v>123.322014146069</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.1577287912251</v>
+        <v>168.7346203378652</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.30828941189</v>
+        <v>152.6308249933932</v>
       </c>
       <c r="AD2" t="n">
-        <v>90742.38087996523</v>
+        <v>123322.0141460689</v>
       </c>
       <c r="AE2" t="n">
-        <v>124157.7287912251</v>
+        <v>168734.6203378652</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.068469425453851e-06</v>
+        <v>6.073861513558961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>112308.28941189</v>
+        <v>152630.8249933932</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.95531149956639</v>
+        <v>122.6157355555785</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.1348728068279</v>
+        <v>167.7682588115443</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.4328779284555</v>
+        <v>151.7566916548471</v>
       </c>
       <c r="AD3" t="n">
-        <v>81955.31149956639</v>
+        <v>122615.7355555785</v>
       </c>
       <c r="AE3" t="n">
-        <v>112134.8728068279</v>
+        <v>167768.2588115443</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.117875071532495e-06</v>
+        <v>6.147619730934803e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101432.8779284555</v>
+        <v>151756.6916548471</v>
       </c>
     </row>
   </sheetData>
